--- a/Random-proliferation-assays/143B-SLC1A3_Rot_Asp-Pyr-rescue/SLC1A3_asp_rot_pyr.xlsx
+++ b/Random-proliferation-assays/143B-SLC1A3_Rot_Asp-Pyr-rescue/SLC1A3_asp_rot_pyr.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/Random-proliferation-assays/143B-SLC1A3_Rot_Asp-Pyr-rescue/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8371D57F-5AAC-9643-B1F9-7787F70F7A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="21320" windowHeight="13620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -133,11 +139,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +207,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +293,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +345,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,14 +538,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +591,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -550,7 +605,7 @@
         <v>37</v>
       </c>
       <c r="E2" s="2">
-        <v>44620.60555555556</v>
+        <v>44620.605555555558</v>
       </c>
       <c r="F2">
         <v>47293</v>
@@ -577,7 +632,7 @@
         <v>2.04</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -591,7 +646,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="2">
-        <v>44620.60625</v>
+        <v>44620.606249999997</v>
       </c>
       <c r="F3">
         <v>47757</v>
@@ -612,13 +667,13 @@
         <v>17.38</v>
       </c>
       <c r="L3">
-        <v>17.26</v>
+        <v>17.260000000000002</v>
       </c>
       <c r="M3">
-        <v>2.001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.0009999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -632,7 +687,7 @@
         <v>37</v>
       </c>
       <c r="E4" s="2">
-        <v>44620.60625</v>
+        <v>44620.606249999997</v>
       </c>
       <c r="F4">
         <v>45407</v>
@@ -650,7 +705,7 @@
         <v>2116000</v>
       </c>
       <c r="K4">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="L4">
         <v>17.89</v>
@@ -659,7 +714,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -673,7 +728,7 @@
         <v>37</v>
       </c>
       <c r="E5" s="2">
-        <v>44620.60347222222</v>
+        <v>44620.603472222218</v>
       </c>
       <c r="F5">
         <v>32214</v>
@@ -691,16 +746,16 @@
         <v>1521000</v>
       </c>
       <c r="K5">
-        <v>18.31</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="L5">
         <v>18.18</v>
       </c>
       <c r="M5">
-        <v>2.107</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.1070000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -714,7 +769,7 @@
         <v>37</v>
       </c>
       <c r="E6" s="2">
-        <v>44620.60416666666</v>
+        <v>44620.604166666657</v>
       </c>
       <c r="F6">
         <v>37106</v>
@@ -738,10 +793,10 @@
         <v>17.84</v>
       </c>
       <c r="M6">
-        <v>2.033</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.0329999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -755,7 +810,7 @@
         <v>37</v>
       </c>
       <c r="E7" s="2">
-        <v>44620.60486111111</v>
+        <v>44620.604861111111</v>
       </c>
       <c r="F7">
         <v>29775</v>
@@ -776,13 +831,13 @@
         <v>18.29</v>
       </c>
       <c r="L7">
-        <v>18.15</v>
+        <v>18.149999999999999</v>
       </c>
       <c r="M7">
-        <v>2.079</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.0790000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -796,7 +851,7 @@
         <v>37</v>
       </c>
       <c r="E8" s="2">
-        <v>44620.60902777778</v>
+        <v>44620.609027777777</v>
       </c>
       <c r="F8">
         <v>42114</v>
@@ -814,16 +869,16 @@
         <v>2430000</v>
       </c>
       <c r="K8">
-        <v>17.65</v>
+        <v>17.649999999999999</v>
       </c>
       <c r="L8">
-        <v>17.51</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="M8">
-        <v>2.003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.0030000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -837,7 +892,7 @@
         <v>37</v>
       </c>
       <c r="E9" s="2">
-        <v>44620.60972222222</v>
+        <v>44620.609722222223</v>
       </c>
       <c r="F9">
         <v>42844</v>
@@ -858,13 +913,13 @@
         <v>17.48</v>
       </c>
       <c r="L9">
-        <v>17.35</v>
+        <v>17.350000000000001</v>
       </c>
       <c r="M9">
-        <v>1.959</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>1.9590000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -899,13 +954,13 @@
         <v>18.37</v>
       </c>
       <c r="L10">
-        <v>18.26</v>
+        <v>18.260000000000002</v>
       </c>
       <c r="M10">
-        <v>2.063</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>2.0630000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -919,7 +974,7 @@
         <v>37</v>
       </c>
       <c r="E11" s="2">
-        <v>44620.60763888889</v>
+        <v>44620.607638888891</v>
       </c>
       <c r="F11">
         <v>13538</v>
@@ -946,7 +1001,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -960,7 +1015,7 @@
         <v>37</v>
       </c>
       <c r="E12" s="2">
-        <v>44620.60763888889</v>
+        <v>44620.607638888891</v>
       </c>
       <c r="F12">
         <v>12778</v>
@@ -984,10 +1039,10 @@
         <v>18.05</v>
       </c>
       <c r="M12">
-        <v>2.273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2.2730000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1019,16 +1074,16 @@
         <v>1054000</v>
       </c>
       <c r="K13">
-        <v>18.42</v>
+        <v>18.420000000000002</v>
       </c>
       <c r="L13">
         <v>18.25</v>
       </c>
       <c r="M13">
-        <v>2.18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2.1800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1042,7 +1097,7 @@
         <v>37</v>
       </c>
       <c r="E14" s="2">
-        <v>44616.81944444445</v>
+        <v>44616.819444444453</v>
       </c>
       <c r="F14">
         <v>2579</v>
@@ -1069,7 +1124,7 @@
         <v>2.242</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1138,7 @@
         <v>37</v>
       </c>
       <c r="E15" s="2">
-        <v>44616.82013888889</v>
+        <v>44616.820138888892</v>
       </c>
       <c r="F15">
         <v>2901</v>
@@ -1104,13 +1159,13 @@
         <v>20.29</v>
       </c>
       <c r="L15">
-        <v>20.06</v>
+        <v>20.059999999999999</v>
       </c>
       <c r="M15">
         <v>2.37</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1124,7 +1179,7 @@
         <v>37</v>
       </c>
       <c r="E16" s="2">
-        <v>44616.82083333333</v>
+        <v>44616.820833333331</v>
       </c>
       <c r="F16">
         <v>2884</v>
@@ -1142,7 +1197,7 @@
         <v>41380</v>
       </c>
       <c r="K16">
-        <v>20.44</v>
+        <v>20.440000000000001</v>
       </c>
       <c r="L16">
         <v>20.2</v>
@@ -1151,7 +1206,7 @@
         <v>2.379</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1165,7 +1220,7 @@
         <v>37</v>
       </c>
       <c r="E17" s="2">
-        <v>44616.82152777778</v>
+        <v>44616.821527777778</v>
       </c>
       <c r="F17">
         <v>2934</v>
@@ -1192,7 +1247,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1261,7 @@
         <v>37</v>
       </c>
       <c r="E18" s="2">
-        <v>44616.82152777778</v>
+        <v>44616.821527777778</v>
       </c>
       <c r="F18">
         <v>2924</v>
@@ -1230,10 +1285,10 @@
         <v>20.3</v>
       </c>
       <c r="M18">
-        <v>2.384</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2.3839999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1247,7 +1302,7 @@
         <v>37</v>
       </c>
       <c r="E19" s="2">
-        <v>44616.82222222222</v>
+        <v>44616.822222222218</v>
       </c>
       <c r="F19">
         <v>2853</v>
@@ -1259,7 +1314,7 @@
         <v>13.77</v>
       </c>
       <c r="I19">
-        <v>32.45</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="J19">
         <v>41440</v>
@@ -1268,10 +1323,10 @@
         <v>20.52</v>
       </c>
       <c r="L19">
-        <v>20.33</v>
+        <v>20.329999999999998</v>
       </c>
       <c r="M19">
-        <v>2.455</v>
+        <v>2.4550000000000001</v>
       </c>
     </row>
   </sheetData>
